--- a/src/main/resources/Data.xlsx
+++ b/src/main/resources/Data.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="AdminEmail" sheetId="8" r:id="rId1"/>
+    <sheet name="DecisionF" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Data</t>
   </si>
@@ -34,10 +35,94 @@
     <t>********</t>
   </si>
   <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>http://cmemc-stage.mydoublecheck.com/</t>
+    <t>UrlMC</t>
+  </si>
+  <si>
+    <t>https://hcu-stage.mydoublecheck.com</t>
+  </si>
+  <si>
+    <t>UrlDFE</t>
+  </si>
+  <si>
+    <t>https://stage.mydoublecheck.com/</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>Vinav Mevada</t>
+  </si>
+  <si>
+    <t>GmailUrl</t>
+  </si>
+  <si>
+    <t>https://mail.google.com/</t>
+  </si>
+  <si>
+    <t>EmailSender</t>
+  </si>
+  <si>
+    <t>Hollywood Credit Un.</t>
+  </si>
+  <si>
+    <t>OverdraftTooltip</t>
+  </si>
+  <si>
+    <t>This is the amount of allowance your Credit Union has granted you to “Pay” certain items that would not have otherwise been paid.</t>
+  </si>
+  <si>
+    <t>TimeToactTooltip</t>
+  </si>
+  <si>
+    <t>Countdown clock until the deadline expires for you to review and/or take action on the items listed on the next page</t>
+  </si>
+  <si>
+    <t>AmountdueTooltip</t>
+  </si>
+  <si>
+    <t>This is the amount you are choosing to pay based on the I Will Pay decision you selected in the Decision drop-down.</t>
+  </si>
+  <si>
+    <t>Acknowedgement Warning</t>
+  </si>
+  <si>
+    <t>Please acknowledge all items above in order to select payment</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Vinav</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Mevada</t>
+  </si>
+  <si>
+    <t>Emailid</t>
+  </si>
+  <si>
+    <t>AddressLine1</t>
+  </si>
+  <si>
+    <t>Culver City</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>ReceiptRender</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>NorecordAccountname</t>
+  </si>
+  <si>
+    <t>Harsh Patel</t>
   </si>
 </sst>
 </file>
@@ -46,11 +131,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -79,10 +164,30 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFB50000"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -90,6 +195,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,6 +204,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -108,14 +221,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,14 +232,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -146,13 +303,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,52 +325,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,12 +340,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -253,49 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,102 +508,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -410,12 +521,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +531,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,15 +565,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,19 +587,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,6 +608,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -517,166 +631,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -689,7 +794,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1011,16 +1128,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="38.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="27.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="145.571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1055,12 +1172,261 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="vinav.mevada@mydoublecheck.com" tooltip="mailto:vinav.mevada@mydoublecheck.com"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://cmemc-stage.mydoublecheck.com/"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://hcu-stage.mydoublecheck.com" tooltip="https://hcu-stage.mydoublecheck.com"/>
+    <hyperlink ref="B7" r:id="rId3" display="https://mail.google.com/"/>
+    <hyperlink ref="B15" r:id="rId1" display="vinav.mevada@mydoublecheck.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://stage.mydoublecheck.com/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="27.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="145.571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="vinav.mevada@mydoublecheck.com" tooltip="mailto:vinav.mevada@mydoublecheck.com"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://hcu-stage.mydoublecheck.com" tooltip="https://hcu-stage.mydoublecheck.com"/>
+    <hyperlink ref="B7" r:id="rId3" display="https://mail.google.com/"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://stage.mydoublecheck.com/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>